--- a/HelperFiles/OptionPrice.xlsx
+++ b/HelperFiles/OptionPrice.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krzysiekbienias/Downloads/ControlFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krzysiekbienias/Library/Mobile Documents/com~apple~CloudDocs/Documents/GitHub/BlackScholesWorld/HelperFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE0268E-F32A-AB40-8C59-FCB0E062DF20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08719DF-C12C-E745-80BD-FE295C8EDF4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{E6780EDD-42FF-9C43-8308-9E99EAAA7968}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" activeTab="1" xr2:uid="{E6780EDD-42FF-9C43-8308-9E99EAAA7968}"/>
   </bookViews>
   <sheets>
     <sheet name="Input 10D" sheetId="4" r:id="rId1"/>
-    <sheet name="Input 3M" sheetId="3" r:id="rId2"/>
+    <sheet name="Input_3M" sheetId="3" r:id="rId2"/>
     <sheet name="Input 6M" sheetId="1" r:id="rId3"/>
     <sheet name="Scenario Generator" sheetId="5" r:id="rId4"/>
     <sheet name="Dynamic For Report" sheetId="7" r:id="rId5"/>
@@ -25,12 +25,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -898,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9A4FCF-F524-0045-8F19-D207ABEB0014}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1343,7 +1337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7718147-768E-6D44-9A47-92DA3BFA74FC}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>

--- a/HelperFiles/OptionPrice.xlsx
+++ b/HelperFiles/OptionPrice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krzysiekbienias/Library/Mobile Documents/com~apple~CloudDocs/Documents/GitHub/BlackScholesWorld/HelperFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08719DF-C12C-E745-80BD-FE295C8EDF4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00259068-FB70-1446-B319-D7E784491547}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" activeTab="1" xr2:uid="{E6780EDD-42FF-9C43-8308-9E99EAAA7968}"/>
   </bookViews>
@@ -893,7 +893,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/HelperFiles/OptionPrice.xlsx
+++ b/HelperFiles/OptionPrice.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krzysiekbienias/Library/Mobile Documents/com~apple~CloudDocs/Documents/GitHub/BlackScholesWorld/HelperFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krzysiekbienias/Documents/GitHub/BlackScholesWorld/HelperFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00259068-FB70-1446-B319-D7E784491547}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84E7C60-1B4B-024A-837B-EC7A3A7E8974}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" activeTab="1" xr2:uid="{E6780EDD-42FF-9C43-8308-9E99EAAA7968}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="52">
   <si>
     <t>Parameter</t>
   </si>
@@ -893,10 +893,15 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
@@ -1012,7 +1017,9 @@
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="C11" s="4" t="s">
         <v>27</v>
       </c>

--- a/HelperFiles/OptionPrice.xlsx
+++ b/HelperFiles/OptionPrice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krzysiekbienias/Documents/GitHub/BlackScholesWorld/HelperFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84E7C60-1B4B-024A-837B-EC7A3A7E8974}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EABEC67-E061-B741-A37B-C8389941AA8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" activeTab="1" xr2:uid="{E6780EDD-42FF-9C43-8308-9E99EAAA7968}"/>
   </bookViews>
@@ -893,7 +893,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/HelperFiles/OptionPrice.xlsx
+++ b/HelperFiles/OptionPrice.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krzysiekbienias/Documents/GitHub/BlackScholesWorld/HelperFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EABEC67-E061-B741-A37B-C8389941AA8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C7333D-97D2-C641-8EE7-7221DE3B2504}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" activeTab="1" xr2:uid="{E6780EDD-42FF-9C43-8308-9E99EAAA7968}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" activeTab="3" xr2:uid="{E6780EDD-42FF-9C43-8308-9E99EAAA7968}"/>
   </bookViews>
   <sheets>
     <sheet name="Input 10D" sheetId="4" r:id="rId1"/>
     <sheet name="Input_3M" sheetId="3" r:id="rId2"/>
     <sheet name="Input 6M" sheetId="1" r:id="rId3"/>
-    <sheet name="Scenario Generator" sheetId="5" r:id="rId4"/>
+    <sheet name="Scenario_Generator" sheetId="5" r:id="rId4"/>
     <sheet name="Dynamic For Report" sheetId="7" r:id="rId5"/>
     <sheet name="Extension List" sheetId="2" r:id="rId6"/>
     <sheet name="Range" sheetId="6" r:id="rId7"/>
@@ -892,7 +892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9A4FCF-F524-0045-8F19-D207ABEB0014}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -1344,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7718147-768E-6D44-9A47-92DA3BFA74FC}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/HelperFiles/OptionPrice.xlsx
+++ b/HelperFiles/OptionPrice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krzysiekbienias/Documents/GitHub/BlackScholesWorld/HelperFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C7333D-97D2-C641-8EE7-7221DE3B2504}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0950AB-3572-F547-A2E2-D9D18A574CB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" activeTab="3" xr2:uid="{E6780EDD-42FF-9C43-8308-9E99EAAA7968}"/>
   </bookViews>
@@ -1345,7 +1345,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/HelperFiles/OptionPrice.xlsx
+++ b/HelperFiles/OptionPrice.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krzysiekbienias/Library/Mobile Documents/com~apple~CloudDocs/Documents/GitHub/BlackScholesWorld/HelperFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krzysiekbienias/Documents/GitHub/BlackScholesWorld/HelperFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00259068-FB70-1446-B319-D7E784491547}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2EB711-A312-E94B-8837-35774316CCBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" activeTab="1" xr2:uid="{E6780EDD-42FF-9C43-8308-9E99EAAA7968}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" activeTab="2" xr2:uid="{E6780EDD-42FF-9C43-8308-9E99EAAA7968}"/>
   </bookViews>
   <sheets>
     <sheet name="Input 10D" sheetId="4" r:id="rId1"/>
     <sheet name="Input_3M" sheetId="3" r:id="rId2"/>
-    <sheet name="Input 6M" sheetId="1" r:id="rId3"/>
+    <sheet name="Input_6M" sheetId="1" r:id="rId3"/>
     <sheet name="Scenario Generator" sheetId="5" r:id="rId4"/>
     <sheet name="Dynamic For Report" sheetId="7" r:id="rId5"/>
     <sheet name="Extension List" sheetId="2" r:id="rId6"/>
@@ -892,11 +892,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9A4FCF-F524-0045-8F19-D207ABEB0014}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="38.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
@@ -1111,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C69BA0-570F-1E4A-98D6-B7F1D1101E47}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1337,8 +1340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7718147-768E-6D44-9A47-92DA3BFA74FC}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/HelperFiles/OptionPrice.xlsx
+++ b/HelperFiles/OptionPrice.xlsx
@@ -8,30 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krzysiekbienias/Documents/GitHub/BlackScholesWorld/HelperFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2EB711-A312-E94B-8837-35774316CCBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733D0DD8-A2B1-194C-ACC4-5337C7A410E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" activeTab="2" xr2:uid="{E6780EDD-42FF-9C43-8308-9E99EAAA7968}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Input 10D" sheetId="4" r:id="rId1"/>
-    <sheet name="Input_3M" sheetId="3" r:id="rId2"/>
-    <sheet name="Input_6M" sheetId="1" r:id="rId3"/>
-    <sheet name="Scenario Generator" sheetId="5" r:id="rId4"/>
-    <sheet name="Dynamic For Report" sheetId="7" r:id="rId5"/>
-    <sheet name="Extension List" sheetId="2" r:id="rId6"/>
-    <sheet name="Range" sheetId="6" r:id="rId7"/>
+    <sheet name="INPUT_SM" sheetId="1" r:id="rId1"/>
+    <sheet name="INPUT_3MM" sheetId="2" r:id="rId2"/>
+    <sheet name="INPUT_6LM" sheetId="3" r:id="rId3"/>
+    <sheet name="OPTION_PRICE_DYNAMIC" sheetId="5" r:id="rId4"/>
+    <sheet name="SCENARIO_GENERATOR" sheetId="4" r:id="rId5"/>
+    <sheet name="RANGE" sheetId="7" r:id="rId6"/>
+    <sheet name="Extension List" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="53">
   <si>
     <t>Parameter</t>
   </si>
@@ -39,39 +34,81 @@
     <t>Value</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>Valuation Date</t>
   </si>
   <si>
+    <t>2019-11-25</t>
+  </si>
+  <si>
+    <t>string that is converted into Date Object</t>
+  </si>
+  <si>
     <t>Termination Date</t>
   </si>
   <si>
+    <t>2020-02-20</t>
+  </si>
+  <si>
     <t>Schedule Frequency</t>
   </si>
   <si>
+    <t>Two Dates</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>Convention</t>
   </si>
   <si>
+    <t>ActualActual</t>
+  </si>
+  <si>
+    <t>string that is converted into Quant Lib object</t>
+  </si>
+  <si>
     <t>Calendar</t>
   </si>
   <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>String that is converted into Quant Lib object</t>
+  </si>
+  <si>
     <t>Business Convenction</t>
   </si>
   <si>
+    <t>Following</t>
+  </si>
+  <si>
     <t>Termination Business Convention</t>
   </si>
   <si>
     <t>Date Generation</t>
   </si>
   <si>
+    <t>Forward</t>
+  </si>
+  <si>
     <t>End Of Month</t>
   </si>
   <si>
+    <t>boolean</t>
+  </si>
+  <si>
     <t>Type Of Option</t>
   </si>
   <si>
     <t>Current Price</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>Strike</t>
   </si>
   <si>
@@ -84,109 +121,70 @@
     <t>Ann Dividend</t>
   </si>
   <si>
-    <t>Two Dates</t>
+    <t>Black Scholes Price</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Runs</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Option Type</t>
+  </si>
+  <si>
+    <t>Calendar Option</t>
   </si>
   <si>
     <t>Actual360</t>
   </si>
   <si>
+    <t>USA</t>
+  </si>
+  <si>
     <t>Actual365</t>
   </si>
   <si>
-    <t>ActualActual</t>
+    <t>put</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Monthly</t>
   </si>
   <si>
     <t>Thity360</t>
   </si>
   <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Quarterly</t>
+  </si>
+  <si>
     <t>Business252</t>
   </si>
   <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Following</t>
-  </si>
-  <si>
-    <t>Forward</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>string that is converted into Quant Lib object</t>
-  </si>
-  <si>
-    <t>String that is converted into Quant Lib object</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>string that is converted into Date Object</t>
-  </si>
-  <si>
-    <t>call</t>
-  </si>
-  <si>
-    <t>2019-11-25</t>
-  </si>
-  <si>
-    <t>2020-02-20</t>
-  </si>
-  <si>
-    <t>Runs</t>
-  </si>
-  <si>
-    <t>int</t>
+    <t>Semiannual</t>
+  </si>
+  <si>
+    <t>Annual</t>
   </si>
   <si>
     <t>Price</t>
   </si>
   <si>
     <t>Volatility</t>
-  </si>
-  <si>
-    <t>Daily</t>
-  </si>
-  <si>
-    <t>Weekly</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>Quarterly</t>
-  </si>
-  <si>
-    <t>Semiannual</t>
-  </si>
-  <si>
-    <t>Annual</t>
-  </si>
-  <si>
-    <t>Option Type</t>
-  </si>
-  <si>
-    <t>Calendar Option</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Poland</t>
   </si>
 </sst>
 </file>
@@ -336,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
@@ -352,6 +350,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,11 +664,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1F21C8-EC64-BD49-A620-05CB42750A63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -687,213 +686,183 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B10" s="7" t="b">
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="5" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B12" s="7">
         <v>90</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="5" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B13" s="7">
         <v>92</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B14" s="7">
         <v>0.1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="5" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B15" s="7">
         <v>0.23</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B16" s="7">
         <v>0</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{109527CF-26E0-3645-9325-5AE767B635D5}">
-          <x14:formula1>
-            <xm:f>'Extension List'!$A$2:$A$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>B5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{971DDB23-519A-344E-8147-858DA7D0A224}">
-          <x14:formula1>
-            <xm:f>'Extension List'!$B$2:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>B11</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AA099B67-A229-A54C-A531-35F6B55798DB}">
-          <x14:formula1>
-            <xm:f>'Extension List'!$D$2:$D$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>B6</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{99C5FFF1-1895-284B-94CA-82922379898A}">
-          <x14:formula1>
-            <xm:f>'Extension List'!$F$2:$F$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>B4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9A4FCF-F524-0045-8F19-D207ABEB0014}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -909,213 +878,183 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B10" s="7" t="b">
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="5" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B12" s="7">
         <v>90</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="5" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B13" s="7">
         <v>92</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B14" s="7">
         <v>0.1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="5" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B15" s="7">
         <v>0.23</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B16" s="7">
         <v>0</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{67424F7B-CD42-F148-A53A-E2616235C709}">
-          <x14:formula1>
-            <xm:f>'Extension List'!$A$2:$A$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>B5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1934CFFA-D5DC-7B43-86F2-EC665550562F}">
-          <x14:formula1>
-            <xm:f>'Extension List'!$B$2:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>B11</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1266E925-1D82-A946-A4CF-D45B2D483E47}">
-          <x14:formula1>
-            <xm:f>'Extension List'!$D$2:$D$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>B6</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A4AD43CE-40C9-EB45-AC0E-8DC47A77D470}">
-          <x14:formula1>
-            <xm:f>'Extension List'!$F$2:$F$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>B4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C69BA0-570F-1E4A-98D6-B7F1D1101E47}">
-  <dimension ref="A1:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1123,9 +1062,10 @@
     <col min="1" max="1" width="28.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1133,215 +1073,385 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1">
+        <v>4.1051334043909122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="B7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="B9" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B10" s="7" t="b">
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B12" s="7">
         <v>90</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B13" s="7">
         <v>92</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B14" s="7">
         <v>0.1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B15" s="7">
         <v>0.23</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B16" s="7">
         <v>0</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{52034CF3-208F-8147-8412-A18CBF5232CF}">
-          <x14:formula1>
-            <xm:f>'Extension List'!$A$2:$A$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>B5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E671342B-DA4C-8543-842F-DD1B72EC178A}">
-          <x14:formula1>
-            <xm:f>'Extension List'!$B$2:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>B11</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A8F4BDFC-4EE0-014C-955C-E41147FCC16E}">
-          <x14:formula1>
-            <xm:f>'Extension List'!$D$2:$D$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>B6</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{18FD4994-EA1A-B94B-AC39-1A52CE71539D}">
-          <x14:formula1>
-            <xm:f>'Extension List'!$F$2:$F$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>B4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7718147-768E-6D44-9A47-92DA3BFA74FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="38.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="7">
+        <v>90</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="7">
+        <v>92</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.23</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1357,432 +1467,472 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B10" s="7" t="b">
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="5" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B12" s="7">
         <v>90</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="5" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B13" s="7">
         <v>92</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B14" s="7">
         <v>0.1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="5" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B15" s="7">
         <v>0.23</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B16" s="7">
         <v>0</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B17" s="13">
         <v>10000</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{370224D1-B983-2545-B271-8B6D62A2F146}">
-          <x14:formula1>
-            <xm:f>'Extension List'!$A$2:$A$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>B5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9D3FD1FA-0B04-AD4E-ADEE-3741F1DD14A0}">
-          <x14:formula1>
-            <xm:f>'Extension List'!$F$2:$F$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>B4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F975C600-DB64-3A45-AF04-0DB5768FF4DA}">
-          <x14:formula1>
-            <xm:f>'Extension List'!$D$2:$D$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>B6</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2BEE0995-AE75-784F-808C-F196F098CE37}">
-          <x14:formula1>
-            <xm:f>'Extension List'!$B$2:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>B11</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1082BBBA-E30E-8144-8580-83BDD5767F61}">
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="3" max="3" width="38.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="7">
-        <v>90</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="7">
-        <v>92</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="7">
-        <v>0.23</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="7">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C2CA639E-95D3-F64B-ADA9-8743DA614A83}">
-          <x14:formula1>
-            <xm:f>'Extension List'!$A$2:$A$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>B5</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294D3D0B-D184-0A43-BA3C-E5F231DDC47A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:B42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>60</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>61</v>
+      </c>
+      <c r="B3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>62</v>
+      </c>
+      <c r="B4">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>63</v>
+      </c>
+      <c r="B5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>64</v>
+      </c>
+      <c r="B6">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>65</v>
+      </c>
+      <c r="B7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>66</v>
+      </c>
+      <c r="B8">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>67</v>
+      </c>
+      <c r="B9">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>68</v>
+      </c>
+      <c r="B10">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>69</v>
+      </c>
+      <c r="B11">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>70</v>
+      </c>
+      <c r="B12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>71</v>
+      </c>
+      <c r="B13">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>72</v>
+      </c>
+      <c r="B14">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>73</v>
+      </c>
+      <c r="B15">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>74</v>
+      </c>
+      <c r="B16">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>75</v>
+      </c>
+      <c r="B17">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1792,360 +1942,84 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
         <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="F7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC99FD6-FA1D-8042-8EC2-BB4B3E6EDDCC}">
-  <dimension ref="A1:B42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>60</v>
-      </c>
-      <c r="B2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>61</v>
-      </c>
-      <c r="B3">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>62</v>
-      </c>
-      <c r="B4">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>63</v>
-      </c>
-      <c r="B5">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>64</v>
-      </c>
-      <c r="B6">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>65</v>
-      </c>
-      <c r="B7">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>66</v>
-      </c>
-      <c r="B8">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>67</v>
-      </c>
-      <c r="B9">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>68</v>
-      </c>
-      <c r="B10">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>69</v>
-      </c>
-      <c r="B11">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>70</v>
-      </c>
-      <c r="B12">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>71</v>
-      </c>
-      <c r="B13">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>72</v>
-      </c>
-      <c r="B14">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>73</v>
-      </c>
-      <c r="B15">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>74</v>
-      </c>
-      <c r="B16">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>75</v>
-      </c>
-      <c r="B17">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
